--- a/biology/Botanique/Société_botanique_de_Genève/Société_botanique_de_Genève.xlsx
+++ b/biology/Botanique/Société_botanique_de_Genève/Société_botanique_de_Genève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_de_Gen%C3%A8ve</t>
+          <t>Société_botanique_de_Genève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société botanique de Genève est une société savante suisse fondée en 1875 à Genève.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_de_Gen%C3%A8ve</t>
+          <t>Société_botanique_de_Genève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>But et missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vouée à l'étude et à la promotion de la botanique, cette société met à jour les connaissances scientifiques utiles pour préserver l'environnement et la biodiversité. Elle s'occupe en particulier du suivi de la flore du canton de Genève. Elle est ouverte à tous ceux qui s'intéressent à la botanique, des débutants aux experts.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_de_Gen%C3%A8ve</t>
+          <t>Société_botanique_de_Genève</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle collabore de longue date avec les Conservatoire et Jardin botaniques[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle collabore de longue date avec les Conservatoire et Jardin botaniques.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_de_Gen%C3%A8ve</t>
+          <t>Société_botanique_de_Genève</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1989 la Société botanique de Genève, avec le WWF et les Conservatoire et Jardin botaniques de Genève, initie un projet de cartographie de la flore qui aboutit à la publication de l'Atlas de la flore du canton en 2011[2].
-Une revue nommée Saussurea est publiée chaque année. Elle rassemble des articles de vulgarisation et de recherches[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989 la Société botanique de Genève, avec le WWF et les Conservatoire et Jardin botaniques de Genève, initie un projet de cartographie de la flore qui aboutit à la publication de l'Atlas de la flore du canton en 2011.
+Une revue nommée Saussurea est publiée chaque année. Elle rassemble des articles de vulgarisation et de recherches.
 			Bulletin de la Société botanique de Genève (1913).
 </t>
         </is>
